--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACE/10/seed5/result_data_KNN.xlsx
@@ -485,13 +485,13 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.792</v>
+        <v>-13.182</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.402</v>
+        <v>16.228</v>
       </c>
     </row>
     <row r="4">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.508</v>
+        <v>-21.651</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.49</v>
+        <v>-12.139</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.262</v>
+        <v>-12.854</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.48</v>
+        <v>16.135</v>
       </c>
     </row>
     <row r="31">
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.982</v>
+        <v>-13.186</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.822</v>
+        <v>-21.742</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.444</v>
+        <v>-12.762</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.048</v>
+        <v>-20.178</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-14.382</v>
+        <v>-13.341</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.558</v>
+        <v>-19.741</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.592</v>
+        <v>16.611</v>
       </c>
     </row>
     <row r="45">
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.614</v>
+        <v>-12.898</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.772</v>
+        <v>-21.92</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.992</v>
+        <v>-22.155</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.1</v>
+        <v>-22.145</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.829</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.49</v>
+        <v>16.536</v>
       </c>
     </row>
     <row r="59">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.572</v>
+        <v>-21.495</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.608</v>
+        <v>-21.651</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.052</v>
+        <v>-21.445</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.052</v>
+        <v>16.359</v>
       </c>
     </row>
     <row r="85">
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.128</v>
+        <v>16.945</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.478</v>
+        <v>-21.508</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.278</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.188</v>
+        <v>17.381</v>
       </c>
     </row>
     <row r="93">
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.64</v>
+        <v>-20.428</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.866</v>
+        <v>-12.578</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,13 +2168,13 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.032</v>
+        <v>-12.87</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.192</v>
+        <v>16.418</v>
       </c>
     </row>
   </sheetData>
